--- a/biology/Zoologie/Cardiolpium_stupidum/Cardiolpium_stupidum.xlsx
+++ b/biology/Zoologie/Cardiolpium_stupidum/Cardiolpium_stupidum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cardiolpium stupidum est une espèce de pseudoscorpions de la famille des Hesperolpiidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Israël, en Turquie, en Grèce, au Turkménistan et en Ouzbékistan[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Israël, en Turquie, en Grèce, au Turkménistan et en Ouzbékistan.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Apolpiolum stupidum par Beier en 1963. Elle est placée dans le genre Cardiolpium par Mahnert en 1986[2], dans le même temps, il place Apolpiolum rhodium  en synonymie.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Apolpiolum stupidum par Beier en 1963. Elle est placée dans le genre Cardiolpium par Mahnert en 1986, dans le même temps, il place Apolpiolum rhodium  en synonymie.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Beier, 1963 : Die Pseudoscorpioniden-Fauna Israels und einiger Angrenzender Gebiete. Israel Journal of Entomology, vol. 12, p. 183-212.</t>
         </is>
